--- a/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
@@ -8,14 +8,12 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from TRE_R17-TypeAuto" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from TRE_R48-DiplomeE" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from TRE_R54-DiplomeU" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -32,13 +30,13 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.6.1.143</t>
+    <t>urn:oid:1.2.250.1.213.1.6.1.143</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -218,6 +216,114 @@
     <t>Autorisation DGARS Guadeloupe, Guyane, Martinique ou préfet SPM (art. L4131-5 et L4221-14-3)</t>
   </si>
   <si>
+    <t>AM22</t>
+  </si>
+  <si>
+    <t>Agrément de la Caisse Régionale d'Assurance Maladie</t>
+  </si>
+  <si>
+    <t>AM23</t>
+  </si>
+  <si>
+    <t>Agrément du Ministère des anciens combattants</t>
+  </si>
+  <si>
+    <t>AM24</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire avant le 08/11/1976</t>
+  </si>
+  <si>
+    <t>AM25</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire au 29/11/1997</t>
+  </si>
+  <si>
+    <t>AM26</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire au 30/05/2013</t>
+  </si>
+  <si>
+    <t>AM27</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice pour diplôme de l'UE/EEE</t>
+  </si>
+  <si>
+    <t>AM28</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre d'Ostéopathe</t>
+  </si>
+  <si>
+    <t>AM29</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de diététicien, décision administrative en 1986</t>
+  </si>
+  <si>
+    <t>AM30</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de diététicien, emploi permanent en 1986</t>
+  </si>
+  <si>
+    <t>AM31</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
+  </si>
+  <si>
+    <t>AM32</t>
+  </si>
+  <si>
+    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
+  </si>
+  <si>
+    <t>AM33</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+  </si>
+  <si>
+    <t>AM34</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'audioprothésiste pour médecin</t>
+  </si>
+  <si>
+    <t>AM35</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Chiropraxie</t>
+  </si>
+  <si>
+    <t>AM36</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
+  </si>
+  <si>
+    <t>AM37</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
+  </si>
+  <si>
+    <t>AM38</t>
+  </si>
+  <si>
+    <t>Arrêté de Nomination de Manipulateur d'Electro-Radiologie du Secteur Public</t>
+  </si>
+  <si>
+    <t>AM39</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychothérapeute pour médecin</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -225,120 +331,6 @@
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/TRE_R17-TypeAutorisation/FHIR/TRE-R17-TypeAutorisation</t>
-  </si>
-  <si>
-    <t>AM22</t>
-  </si>
-  <si>
-    <t>Agrément de la Caisse Régionale d'Assurance Maladie</t>
-  </si>
-  <si>
-    <t>AM23</t>
-  </si>
-  <si>
-    <t>Agrément du Ministère des anciens combattants</t>
-  </si>
-  <si>
-    <t>AM24</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire avant le 08/11/1976</t>
-  </si>
-  <si>
-    <t>AM25</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire au 29/11/1997</t>
-  </si>
-  <si>
-    <t>AM26</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire au 30/05/2013</t>
-  </si>
-  <si>
-    <t>AM27</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice pour diplôme de l'UE/EEE</t>
-  </si>
-  <si>
-    <t>AM28</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre d'Ostéopathe</t>
-  </si>
-  <si>
-    <t>AM29</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de diététicien, décision administrative en 1986</t>
-  </si>
-  <si>
-    <t>AM30</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de diététicien, emploi permanent en 1986</t>
-  </si>
-  <si>
-    <t>AM31</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R48-DiplomeEtatFrancais/FHIR/TRE-R48-DiplomeEtatFrancais</t>
-  </si>
-  <si>
-    <t>AM32</t>
-  </si>
-  <si>
-    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
-  </si>
-  <si>
-    <t>AM33</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
-  </si>
-  <si>
-    <t>AM34</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'audioprothésiste pour médecin</t>
-  </si>
-  <si>
-    <t>AM35</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de Chiropraxie</t>
-  </si>
-  <si>
-    <t>AM36</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
-  </si>
-  <si>
-    <t>AM37</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
-  </si>
-  <si>
-    <t>AM38</t>
-  </si>
-  <si>
-    <t>Arrêté de Nomination de Manipulateur d'Electro-Radiologie du Secteur Public</t>
-  </si>
-  <si>
-    <t>AM39</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R54-DiplomeUniversiteInterUniversitaire/FHIR/TRE-R54-DiplomeUniversiteInterUniversitaire</t>
   </si>
 </sst>
 </file>
@@ -601,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -784,241 +776,159 @@
         <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
         <v>70</v>
       </c>
-      <c r="B2" t="s" s="2">
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
         <v>71</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="B24" t="s" s="2">
         <v>72</v>
       </c>
-      <c r="B3" t="s" s="2">
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
         <v>73</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+      <c r="B25" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="B4" t="s" s="2">
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+      <c r="B26" t="s" s="2">
         <v>76</v>
       </c>
-      <c r="B5" t="s" s="2">
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
         <v>77</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
+      <c r="B27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="B6" t="s" s="2">
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
         <v>79</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
+      <c r="B28" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B7" t="s" s="2">
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
         <v>81</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
+      <c r="B29" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="B8" t="s" s="2">
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
         <v>83</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="B30" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="B9" t="s" s="2">
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
         <v>85</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="B31" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="B10" t="s" s="2">
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
         <v>87</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="B32" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B11" t="s" s="2">
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
         <v>89</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B13" t="s" s="2">
+      <c r="B33" t="s" s="2">
         <v>90</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="30.703125" customWidth="true"/>
-    <col min="2" max="2" width="50.703125" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>26</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="2">
+    <row r="34">
+      <c r="A34" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B34" t="s" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
+    <row r="35">
+      <c r="A35" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B35" t="s" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
+    <row r="36">
+      <c r="A36" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B36" t="s" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+    <row r="37">
+      <c r="A37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B37" t="s" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
+    <row r="38">
+      <c r="A38" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B38" t="s" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
+    <row r="39">
+      <c r="A39" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B39" t="s" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
+    <row r="40">
+      <c r="A40" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B40" t="s" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="B41" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-06-28T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -324,7 +330,16 @@
     <t>Autorisation d'exercice de psychothérapeute pour médecin</t>
   </si>
   <si>
-    <t/>
+    <t>AM40</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice temporaire Nouvelle-Calédonie (loi du pays n°2023-8)</t>
+  </si>
+  <si>
+    <t>AM41</t>
+  </si>
+  <si>
+    <t>Agrément de radiophysicien avant le 28/11/2004</t>
   </si>
   <si>
     <t>System URI</t>
@@ -464,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -570,20 +585,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -593,7 +616,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -605,330 +628,346 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,274 +72,259 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>ANS (https://esante.gouv.fr)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type d'autorisation d'exercice pour accès à l'exercice de la profession du RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>AM00</t>
+  </si>
+  <si>
+    <t>Autre type d'autorisation</t>
+  </si>
+  <si>
+    <t>AM01</t>
+  </si>
+  <si>
+    <t>Autorisation de plein exercice</t>
+  </si>
+  <si>
+    <t>AM02</t>
+  </si>
+  <si>
+    <t>Autorisation ministérielle d'exercice en qualité de PAC</t>
+  </si>
+  <si>
+    <t>AM03</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice limité à un seul hôpital</t>
+  </si>
+  <si>
+    <t>AM04</t>
+  </si>
+  <si>
+    <t>Autorisation Propharmacie</t>
+  </si>
+  <si>
+    <t>AM05</t>
+  </si>
+  <si>
+    <t>Directeur de laboratoire (scientifique, médecin, pharmacien)</t>
+  </si>
+  <si>
+    <t>AM08</t>
+  </si>
+  <si>
+    <t>Pays avec convention inter-état</t>
+  </si>
+  <si>
+    <t>AM09</t>
+  </si>
+  <si>
+    <t>Code de la santé</t>
+  </si>
+  <si>
+    <t>AM10</t>
+  </si>
+  <si>
+    <t>Traité de Rome</t>
+  </si>
+  <si>
+    <t>AM11</t>
+  </si>
+  <si>
+    <t>Nombre par arrête (NPA art L 4111-2 1 et 1bis du CSP)</t>
+  </si>
+  <si>
+    <t>AM12</t>
+  </si>
+  <si>
+    <t>Loi Hôpital, patients, santé et territoires (HPST) du 21 Juillet 2009</t>
+  </si>
+  <si>
+    <t>AM13</t>
+  </si>
+  <si>
+    <t>Hôpital Américain exclusivement</t>
+  </si>
+  <si>
+    <t>AM14</t>
+  </si>
+  <si>
+    <t>Arrangement France-Québec (art L 4111-3-1 CSP)</t>
+  </si>
+  <si>
+    <t>AM15</t>
+  </si>
+  <si>
+    <t>Article L 4131-1-1 du CSP</t>
+  </si>
+  <si>
+    <t>AM16</t>
+  </si>
+  <si>
+    <t>Arabie Saoudite décret n°2012-1123 du 03-10-2012</t>
+  </si>
+  <si>
+    <t>AM17</t>
+  </si>
+  <si>
+    <t>Emirats Arabes Unis décret n°2012-863 du 5-07-2012</t>
+  </si>
+  <si>
+    <t>AMGP</t>
+  </si>
+  <si>
+    <t>En cours de validation au Guichet principal</t>
+  </si>
+  <si>
+    <t>AM18</t>
+  </si>
+  <si>
+    <t>Autorisation de l'Agence régionale de santé (ARS)</t>
+  </si>
+  <si>
+    <t>AM20</t>
+  </si>
+  <si>
+    <t>Autorisation de la Direction régionale de l'économie, de l'emploi, du travail et des solidarités (DREETS)</t>
+  </si>
+  <si>
+    <t>AM21</t>
+  </si>
+  <si>
+    <t>Autorisation DGARS Guadeloupe, Guyane, Martinique ou préfet SPM (art. L4131-5 et L4221-14-3)</t>
+  </si>
+  <si>
+    <t>AM22</t>
+  </si>
+  <si>
+    <t>Agrément de la Caisse Régionale d'Assurance Maladie</t>
+  </si>
+  <si>
+    <t>AM23</t>
+  </si>
+  <si>
+    <t>Agrément du Ministère des anciens combattants</t>
+  </si>
+  <si>
+    <t>AM24</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire avant le 08/11/1976</t>
+  </si>
+  <si>
+    <t>AM25</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire au 29/11/1997</t>
+  </si>
+  <si>
+    <t>AM26</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire au 30/05/2013</t>
+  </si>
+  <si>
+    <t>AM27</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice pour diplôme de l'UE/EEE</t>
+  </si>
+  <si>
+    <t>AM28</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre d'Ostéopathe</t>
+  </si>
+  <si>
+    <t>AM29</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de diététicien, décision administrative en 1986</t>
+  </si>
+  <si>
+    <t>AM30</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de diététicien, emploi permanent en 1986</t>
+  </si>
+  <si>
+    <t>AM31</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
+  </si>
+  <si>
+    <t>AM32</t>
+  </si>
+  <si>
+    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
+  </si>
+  <si>
+    <t>AM33</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+  </si>
+  <si>
+    <t>AM34</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'audioprothésiste pour médecin</t>
+  </si>
+  <si>
+    <t>AM35</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Chiropraxie</t>
+  </si>
+  <si>
+    <t>AM36</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
+  </si>
+  <si>
+    <t>AM37</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
+  </si>
+  <si>
+    <t>AM38</t>
+  </si>
+  <si>
+    <t>Arrêté de Nomination de Manipulateur d'Electro-Radiologie du Secteur Public</t>
+  </si>
+  <si>
+    <t>AM39</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychothérapeute pour médecin</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type d'autorisation d'exercice pour accès à l'exercice de la profession du RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>AM00</t>
-  </si>
-  <si>
-    <t>Autre type d'autorisation</t>
-  </si>
-  <si>
-    <t>AM01</t>
-  </si>
-  <si>
-    <t>Autorisation de plein exercice</t>
-  </si>
-  <si>
-    <t>AM02</t>
-  </si>
-  <si>
-    <t>Autorisation ministérielle d'exercice en qualité de PAC</t>
-  </si>
-  <si>
-    <t>AM03</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice limité à un seul hôpital</t>
-  </si>
-  <si>
-    <t>AM04</t>
-  </si>
-  <si>
-    <t>Autorisation Propharmacie</t>
-  </si>
-  <si>
-    <t>AM05</t>
-  </si>
-  <si>
-    <t>Directeur de laboratoire (scientifique, médecin, pharmacien)</t>
-  </si>
-  <si>
-    <t>AM08</t>
-  </si>
-  <si>
-    <t>Pays avec convention inter-état</t>
-  </si>
-  <si>
-    <t>AM09</t>
-  </si>
-  <si>
-    <t>Code de la santé</t>
-  </si>
-  <si>
-    <t>AM10</t>
-  </si>
-  <si>
-    <t>Traité de Rome</t>
-  </si>
-  <si>
-    <t>AM11</t>
-  </si>
-  <si>
-    <t>Nombre par arrête (NPA art L 4111-2 1 et 1bis du CSP)</t>
-  </si>
-  <si>
-    <t>AM12</t>
-  </si>
-  <si>
-    <t>Loi Hôpital, patients, santé et territoires (HPST) du 21 Juillet 2009</t>
-  </si>
-  <si>
-    <t>AM13</t>
-  </si>
-  <si>
-    <t>Hôpital Américain exclusivement</t>
-  </si>
-  <si>
-    <t>AM14</t>
-  </si>
-  <si>
-    <t>Arrangement France-Québec (art L 4111-3-1 CSP)</t>
-  </si>
-  <si>
-    <t>AM15</t>
-  </si>
-  <si>
-    <t>Article L 4131-1-1 du CSP</t>
-  </si>
-  <si>
-    <t>AM16</t>
-  </si>
-  <si>
-    <t>Arabie Saoudite décret n°2012-1123 du 03-10-2012</t>
-  </si>
-  <si>
-    <t>AM17</t>
-  </si>
-  <si>
-    <t>Emirats Arabes Unis décret n°2012-863 du 5-07-2012</t>
-  </si>
-  <si>
-    <t>AMGP</t>
-  </si>
-  <si>
-    <t>En cours de validation au Guichet principal</t>
-  </si>
-  <si>
-    <t>AM18</t>
-  </si>
-  <si>
-    <t>Autorisation de l'Agence régionale de santé (ARS)</t>
-  </si>
-  <si>
-    <t>AM20</t>
-  </si>
-  <si>
-    <t>Autorisation de la Direction régionale de l'économie, de l'emploi, du travail et des solidarités (DREETS)</t>
-  </si>
-  <si>
-    <t>AM21</t>
-  </si>
-  <si>
-    <t>Autorisation DGARS Guadeloupe, Guyane, Martinique ou préfet SPM (art. L4131-5 et L4221-14-3)</t>
-  </si>
-  <si>
-    <t>AM22</t>
-  </si>
-  <si>
-    <t>Agrément de la Caisse Régionale d'Assurance Maladie</t>
-  </si>
-  <si>
-    <t>AM23</t>
-  </si>
-  <si>
-    <t>Agrément du Ministère des anciens combattants</t>
-  </si>
-  <si>
-    <t>AM24</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire avant le 08/11/1976</t>
-  </si>
-  <si>
-    <t>AM25</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire au 29/11/1997</t>
-  </si>
-  <si>
-    <t>AM26</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire au 30/05/2013</t>
-  </si>
-  <si>
-    <t>AM27</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice pour diplôme de l'UE/EEE</t>
-  </si>
-  <si>
-    <t>AM28</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre d'Ostéopathe</t>
-  </si>
-  <si>
-    <t>AM29</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de diététicien, décision administrative en 1986</t>
-  </si>
-  <si>
-    <t>AM30</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de diététicien, emploi permanent en 1986</t>
-  </si>
-  <si>
-    <t>AM31</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
-  </si>
-  <si>
-    <t>AM32</t>
-  </si>
-  <si>
-    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
-  </si>
-  <si>
-    <t>AM33</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
-  </si>
-  <si>
-    <t>AM34</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'audioprothésiste pour médecin</t>
-  </si>
-  <si>
-    <t>AM35</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de Chiropraxie</t>
-  </si>
-  <si>
-    <t>AM36</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
-  </si>
-  <si>
-    <t>AM37</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
-  </si>
-  <si>
-    <t>AM38</t>
-  </si>
-  <si>
-    <t>Arrêté de Nomination de Manipulateur d'Electro-Radiologie du Secteur Public</t>
-  </si>
-  <si>
-    <t>AM39</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin</t>
-  </si>
-  <si>
-    <t>AM40</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice temporaire Nouvelle-Calédonie (loi du pays n°2023-8)</t>
-  </si>
-  <si>
-    <t>AM41</t>
-  </si>
-  <si>
-    <t>Agrément de radiophysicien avant le 28/11/2004</t>
   </si>
   <si>
     <t>System URI</t>
@@ -479,7 +464,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -585,28 +570,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -616,7 +593,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -628,346 +605,330 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -75,271 +75,268 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
-    <t>Jurisdiction</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Type d'autorisation d'exercice pour accès à l'exercice de la profession du RASS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>AM00</t>
+  </si>
+  <si>
+    <t>Autre type d'autorisation</t>
+  </si>
+  <si>
+    <t>AM01</t>
+  </si>
+  <si>
+    <t>Autorisation de plein exercice</t>
+  </si>
+  <si>
+    <t>AM02</t>
+  </si>
+  <si>
+    <t>Autorisation ministérielle d'exercice en qualité de PAC</t>
+  </si>
+  <si>
+    <t>AM03</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice limité à un seul hôpital</t>
+  </si>
+  <si>
+    <t>AM04</t>
+  </si>
+  <si>
+    <t>Autorisation Propharmacie</t>
+  </si>
+  <si>
+    <t>AM05</t>
+  </si>
+  <si>
+    <t>Directeur de laboratoire (scientifique, médecin, pharmacien)</t>
+  </si>
+  <si>
+    <t>AM08</t>
+  </si>
+  <si>
+    <t>Pays avec convention inter-état</t>
+  </si>
+  <si>
+    <t>AM09</t>
+  </si>
+  <si>
+    <t>Code de la santé</t>
+  </si>
+  <si>
+    <t>AM10</t>
+  </si>
+  <si>
+    <t>Traité de Rome</t>
+  </si>
+  <si>
+    <t>AM11</t>
+  </si>
+  <si>
+    <t>Nombre par arrête (NPA art L 4111-2 1 et 1bis du CSP)</t>
+  </si>
+  <si>
+    <t>AM12</t>
+  </si>
+  <si>
+    <t>Loi Hôpital, patients, santé et territoires (HPST) du 21 Juillet 2009</t>
+  </si>
+  <si>
+    <t>AM13</t>
+  </si>
+  <si>
+    <t>Hôpital Américain exclusivement</t>
+  </si>
+  <si>
+    <t>AM14</t>
+  </si>
+  <si>
+    <t>Arrangement France-Québec (art L 4111-3-1 CSP)</t>
+  </si>
+  <si>
+    <t>AM15</t>
+  </si>
+  <si>
+    <t>Article L 4131-1-1 du CSP</t>
+  </si>
+  <si>
+    <t>AM16</t>
+  </si>
+  <si>
+    <t>Arabie Saoudite décret n°2012-1123 du 03-10-2012</t>
+  </si>
+  <si>
+    <t>AM17</t>
+  </si>
+  <si>
+    <t>Emirats Arabes Unis décret n°2012-863 du 5-07-2012</t>
+  </si>
+  <si>
+    <t>AMGP</t>
+  </si>
+  <si>
+    <t>En cours de validation au Guichet principal</t>
+  </si>
+  <si>
+    <t>AM18</t>
+  </si>
+  <si>
+    <t>Autorisation de l'Agence régionale de santé (ARS)</t>
+  </si>
+  <si>
+    <t>AM20</t>
+  </si>
+  <si>
+    <t>Autorisation de la Direction régionale de l'économie, de l'emploi, du travail et des solidarités (DREETS)</t>
+  </si>
+  <si>
+    <t>AM21</t>
+  </si>
+  <si>
+    <t>Autorisation DGARS Guadeloupe, Guyane, Martinique ou préfet SPM (art. L4131-5 et L4221-14-3)</t>
+  </si>
+  <si>
+    <t>AM22</t>
+  </si>
+  <si>
+    <t>Agrément de la Caisse Régionale d'Assurance Maladie</t>
+  </si>
+  <si>
+    <t>AM23</t>
+  </si>
+  <si>
+    <t>Agrément du Ministère des anciens combattants</t>
+  </si>
+  <si>
+    <t>AM24</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire avant le 08/11/1976</t>
+  </si>
+  <si>
+    <t>AM25</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire au 29/11/1997</t>
+  </si>
+  <si>
+    <t>AM26</t>
+  </si>
+  <si>
+    <t>Exerce comme technicien de laboratoire au 30/05/2013</t>
+  </si>
+  <si>
+    <t>AM27</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice pour diplôme de l'UE/EEE</t>
+  </si>
+  <si>
+    <t>AM28</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre d'Ostéopathe</t>
+  </si>
+  <si>
+    <t>AM29</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de diététicien, décision administrative en 1986</t>
+  </si>
+  <si>
+    <t>AM30</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de diététicien, emploi permanent en 1986</t>
+  </si>
+  <si>
+    <t>AM31</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
+  </si>
+  <si>
+    <t>AM32</t>
+  </si>
+  <si>
+    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
+  </si>
+  <si>
+    <t>AM33</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+  </si>
+  <si>
+    <t>AM34</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'audioprothésiste pour médecin</t>
+  </si>
+  <si>
+    <t>AM35</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Chiropraxie</t>
+  </si>
+  <si>
+    <t>AM36</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
+  </si>
+  <si>
+    <t>AM37</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice d'épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
+  </si>
+  <si>
+    <t>AM38</t>
+  </si>
+  <si>
+    <t>Arrêté de Nomination de Manipulateur d'Electro-Radiologie du Secteur Public</t>
+  </si>
+  <si>
+    <t>AM39</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice de psychothérapeute pour médecin</t>
+  </si>
+  <si>
+    <t>AM40</t>
+  </si>
+  <si>
+    <t>Autorisation d'exercice temporaire Nouvelle-Calédonie (loi du pays n°2023-8)</t>
+  </si>
+  <si>
+    <t>AM41</t>
+  </si>
+  <si>
+    <t>Agrément de radiophysicien avant le 28/11/2004</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Type d'autorisation d'exercice pour accès à l'exercice de la profession du RASS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Concept</t>
-  </si>
-  <si>
-    <t>AM00</t>
-  </si>
-  <si>
-    <t>Autre type d'autorisation</t>
-  </si>
-  <si>
-    <t>AM01</t>
-  </si>
-  <si>
-    <t>Autorisation de plein exercice</t>
-  </si>
-  <si>
-    <t>AM02</t>
-  </si>
-  <si>
-    <t>Autorisation ministérielle d'exercice en qualité de PAC</t>
-  </si>
-  <si>
-    <t>AM03</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice limité à un seul hôpital</t>
-  </si>
-  <si>
-    <t>AM04</t>
-  </si>
-  <si>
-    <t>Autorisation Propharmacie</t>
-  </si>
-  <si>
-    <t>AM05</t>
-  </si>
-  <si>
-    <t>Directeur de laboratoire (scientifique, médecin, pharmacien)</t>
-  </si>
-  <si>
-    <t>AM08</t>
-  </si>
-  <si>
-    <t>Pays avec convention inter-état</t>
-  </si>
-  <si>
-    <t>AM09</t>
-  </si>
-  <si>
-    <t>Code de la santé</t>
-  </si>
-  <si>
-    <t>AM10</t>
-  </si>
-  <si>
-    <t>Traité de Rome</t>
-  </si>
-  <si>
-    <t>AM11</t>
-  </si>
-  <si>
-    <t>Nombre par arrête (NPA art L 4111-2 1 et 1bis du CSP)</t>
-  </si>
-  <si>
-    <t>AM12</t>
-  </si>
-  <si>
-    <t>Loi Hôpital, patients, santé et territoires (HPST) du 21 Juillet 2009</t>
-  </si>
-  <si>
-    <t>AM13</t>
-  </si>
-  <si>
-    <t>Hôpital Américain exclusivement</t>
-  </si>
-  <si>
-    <t>AM14</t>
-  </si>
-  <si>
-    <t>Arrangement France-Québec (art L 4111-3-1 CSP)</t>
-  </si>
-  <si>
-    <t>AM15</t>
-  </si>
-  <si>
-    <t>Article L 4131-1-1 du CSP</t>
-  </si>
-  <si>
-    <t>AM16</t>
-  </si>
-  <si>
-    <t>Arabie Saoudite décret n°2012-1123 du 03-10-2012</t>
-  </si>
-  <si>
-    <t>AM17</t>
-  </si>
-  <si>
-    <t>Emirats Arabes Unis décret n°2012-863 du 5-07-2012</t>
-  </si>
-  <si>
-    <t>AMGP</t>
-  </si>
-  <si>
-    <t>En cours de validation au Guichet principal</t>
-  </si>
-  <si>
-    <t>AM18</t>
-  </si>
-  <si>
-    <t>Autorisation de l'Agence régionale de santé (ARS)</t>
-  </si>
-  <si>
-    <t>AM20</t>
-  </si>
-  <si>
-    <t>Autorisation de la Direction régionale de l'économie, de l'emploi, du travail et des solidarités (DREETS)</t>
-  </si>
-  <si>
-    <t>AM21</t>
-  </si>
-  <si>
-    <t>Autorisation DGARS Guadeloupe, Guyane, Martinique ou préfet SPM (art. L4131-5 et L4221-14-3)</t>
-  </si>
-  <si>
-    <t>AM22</t>
-  </si>
-  <si>
-    <t>Agrément de la Caisse Régionale d'Assurance Maladie</t>
-  </si>
-  <si>
-    <t>AM23</t>
-  </si>
-  <si>
-    <t>Agrément du Ministère des anciens combattants</t>
-  </si>
-  <si>
-    <t>AM24</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire avant le 08/11/1976</t>
-  </si>
-  <si>
-    <t>AM25</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire au 29/11/1997</t>
-  </si>
-  <si>
-    <t>AM26</t>
-  </si>
-  <si>
-    <t>Exerce comme technicien de laboratoire au 30/05/2013</t>
-  </si>
-  <si>
-    <t>AM27</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice pour diplôme de l'UE/EEE</t>
-  </si>
-  <si>
-    <t>AM28</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre d'Ostéopathe</t>
-  </si>
-  <si>
-    <t>AM29</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de diététicien, décision administrative en 1986</t>
-  </si>
-  <si>
-    <t>AM30</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de diététicien, emploi permanent en 1986</t>
-  </si>
-  <si>
-    <t>AM31</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychologue diplôme étranger</t>
-  </si>
-  <si>
-    <t>AM32</t>
-  </si>
-  <si>
-    <t>Autorisation préfectorale d'exercice de psychologue décret 90-259</t>
-  </si>
-  <si>
-    <t>AM33</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
-  </si>
-  <si>
-    <t>AM34</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'audioprothésiste pour médecin</t>
-  </si>
-  <si>
-    <t>AM35</t>
-  </si>
-  <si>
-    <t>Autorisation d'user du titre de Chiropraxie</t>
-  </si>
-  <si>
-    <t>AM36</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'épithésiste pour chirurgien-dentiste</t>
-  </si>
-  <si>
-    <t>AM37</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice d'épithésiste pour médecin stomatologue ou chirurgie maxillo-faciale</t>
-  </si>
-  <si>
-    <t>AM38</t>
-  </si>
-  <si>
-    <t>Arrêté de Nomination de Manipulateur d'Electro-Radiologie du Secteur Public</t>
-  </si>
-  <si>
-    <t>AM39</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin</t>
-  </si>
-  <si>
-    <t>AM40</t>
-  </si>
-  <si>
-    <t>Autorisation d'exercice temporaire Nouvelle-Calédonie (loi du pays n°2023-8)</t>
-  </si>
-  <si>
-    <t>AM41</t>
-  </si>
-  <si>
-    <t>Agrément de radiophysicien avant le 28/11/2004</t>
   </si>
   <si>
     <t>System URI</t>
@@ -479,7 +476,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -585,28 +582,20 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" t="s" s="2">
-        <v>23</v>
-      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>25</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -628,346 +617,346 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
+++ b/www/ig/nos/ValueSet-JDV-J75-TypeAutorisation-RASS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:00:00+01:00</t>
+    <t>2025-01-31T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -285,7 +285,7 @@
     <t>AM33</t>
   </si>
   <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin spécialisé psychiatrie</t>
+    <t>Docteur en médecine spécialité psychiatrie</t>
   </si>
   <si>
     <t>AM34</t>
@@ -321,7 +321,7 @@
     <t>AM39</t>
   </si>
   <si>
-    <t>Autorisation d'exercice de psychothérapeute pour médecin</t>
+    <t>Docteur en médecine + formation + stage</t>
   </si>
   <si>
     <t>AM40</t>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>Agrément de radiophysicien avant le 28/11/2004</t>
+  </si>
+  <si>
+    <t>AM42</t>
+  </si>
+  <si>
+    <t>Autorisation d'user du titre de Psychothérapeute</t>
   </si>
   <si>
     <t/>
@@ -605,7 +611,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -948,15 +954,23 @@
         <v>107</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>109</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
